--- a/data/human/adult/validation/Scenarios/AnesthesiaMachineValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/AnesthesiaMachineValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\test\validation\Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\documentation-source\data\human\adult\validation\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2724B15-ADE7-47EC-8B71-FD82B7C3A777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957E373E-0F2A-4106-9A3B-1D5EF2BAEA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15855" yWindow="7740" windowWidth="32670" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27150" yWindow="6735" windowWidth="29340" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
@@ -43,7 +43,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -155,9 +159,6 @@
     <t>Aorta Carbon Dioxide Partial Pressure (mmHg)</t>
   </si>
   <si>
-    <t>Increases leading to hypercapnia if untreated Morgan2006Clinical</t>
-  </si>
-  <si>
     <t>Goes to Zero @cite Morgan2006Clinical</t>
   </si>
   <si>
@@ -332,9 +333,6 @@
     <t>No Change @cite Morgan2006Clinical</t>
   </si>
   <si>
-    <t>No Change Morgan2006Clinical</t>
-  </si>
-  <si>
     <t>Total lung volume goes to approx. zero - RR is based on waveform, so still registers.</t>
   </si>
   <si>
@@ -519,6 +517,12 @@
   </si>
   <si>
     <t>Leak not severe enough to noticeably increase Aorta CO2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Change @cite Morgan2006Clinical  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increases leading to hypercapnia if untreated @cite Morgan2006Clinical  </t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1082,7 @@
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1154,9 +1158,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1587,564 +1588,564 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="131.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="40.140625" style="28"/>
+    <col min="1" max="1" width="2" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="131.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="40.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="30" t="s">
+      <c r="K1" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="36">
+        <v>30</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="30" t="s">
+      <c r="H3" s="37">
+        <v>0</v>
+      </c>
+      <c r="I3" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="29" t="s">
+      <c r="J3" s="38">
+        <v>0</v>
+      </c>
+      <c r="K3" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="37">
-        <v>30</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="38">
-        <v>0</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="J3" s="39">
-        <v>0</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>116</v>
+      <c r="A4" s="28" t="s">
+        <v>114</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="36">
+        <v>29</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="37">
+        <v>1</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="38">
+        <v>0</v>
+      </c>
+      <c r="K4" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="37">
-        <v>27</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="38">
-        <v>3</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" s="39">
-        <v>2</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>116</v>
+      <c r="A5" s="28" t="s">
+        <v>114</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="36" t="s">
+      <c r="C5" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="36">
+        <v>30</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="37">
+        <v>0</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="38">
+        <v>0</v>
+      </c>
+      <c r="K5" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="37">
-        <v>30</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="38">
-        <v>0</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="J5" s="39">
-        <v>0</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>116</v>
+      <c r="A6" s="28" t="s">
+        <v>114</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="36">
+        <v>29</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="37">
+        <v>1</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="38">
+        <v>0</v>
+      </c>
+      <c r="K6" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="37">
-        <v>28</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="38">
-        <v>0</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="J6" s="39">
-        <v>2</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>116</v>
+      <c r="A7" s="28" t="s">
+        <v>114</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="36">
+        <v>30</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="37">
+        <v>0</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="38">
+        <v>0</v>
+      </c>
+      <c r="K7" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="37">
-        <v>28</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="38">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="36">
+        <v>30</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="37">
         <v>0</v>
       </c>
-      <c r="I7" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="J7" s="39">
-        <v>2</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="29" t="s">
+      <c r="I8" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" s="38">
+        <v>0</v>
+      </c>
+      <c r="K8" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="37">
-        <v>30</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" s="38">
-        <v>0</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="J8" s="39">
-        <v>0</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>116</v>
+      <c r="A9" s="28" t="s">
+        <v>114</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="36" t="s">
+      <c r="C9" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="36">
+        <v>30</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="37">
+        <v>0</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" s="38">
+        <v>0</v>
+      </c>
+      <c r="K9" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="37">
-        <v>30</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="38">
-        <v>0</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="39">
-        <v>0</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>116</v>
+      <c r="A10" s="28" t="s">
+        <v>114</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="36" t="s">
+      <c r="C10" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="36">
+        <v>25</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="37">
+        <v>0</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" s="38">
+        <v>0</v>
+      </c>
+      <c r="K10" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="37">
-        <v>25</v>
-      </c>
-      <c r="G10" s="29" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="36">
+        <v>30</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" s="38">
+        <v>0</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="36">
+        <v>12</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" s="38">
+        <v>0</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="36">
+        <v>30</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="37">
+        <v>0</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="38">
+        <v>0</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="36">
+        <v>30</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="37">
+        <v>0</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" s="38">
+        <v>0</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="38">
+      <c r="E15" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="36">
+        <f>SUM(F3:F14)</f>
+        <v>335</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="37">
+        <f>SUM(H3:H14)</f>
+        <v>2</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" s="38">
+        <f>SUM(J3:J14)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="J10" s="39">
-        <v>0</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="29" t="s">
+      <c r="K15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="37">
-        <v>28</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="38">
-        <v>1</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="J11" s="39">
-        <v>1</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="37">
-        <v>12</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" s="38">
-        <v>0</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="J12" s="39">
-        <v>0</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="37">
-        <v>30</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="38">
-        <v>0</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="J13" s="39">
-        <v>0</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="37">
-        <v>30</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="H14" s="38">
-        <v>0</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" s="39">
-        <v>0</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="37">
-        <f>SUM(F3:F14)</f>
-        <v>328</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="38">
-        <f>SUM(H3:H14)</f>
-        <v>4</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="J15" s="39">
-        <f>SUM(J3:J14)</f>
-        <v>7</v>
-      </c>
-      <c r="K15" s="29" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="33"/>
+      <c r="C17" s="32"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="34"/>
+      <c r="C22" s="33"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" s="14"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D31" s="34"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D32" s="14"/>
@@ -2166,8 +2167,8 @@
   </sheetPr>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,280 +2193,280 @@
   <sheetData>
     <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H3" s="6">
         <v>120</v>
       </c>
       <c r="I3" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O3" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F4" s="6">
         <v>120</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H4" s="6">
         <v>300</v>
       </c>
       <c r="I4" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O4" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5" s="6">
         <v>300</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H5" s="6">
         <v>480</v>
       </c>
       <c r="I5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F6" s="6">
         <v>480</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H6" s="6">
         <v>660</v>
       </c>
       <c r="I6" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2485,8 +2486,8 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2515,466 +2516,466 @@
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H3" s="6">
         <v>90</v>
       </c>
       <c r="I3" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F4" s="6">
         <v>90</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H4" s="6">
         <v>180</v>
       </c>
       <c r="I4" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="S4" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5" s="6">
         <v>180</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H5" s="6">
         <v>270</v>
       </c>
       <c r="I5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F6" s="6">
         <v>270</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H6" s="6">
         <v>360</v>
       </c>
       <c r="I6" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F7" s="6">
         <v>360</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H7" s="6">
         <v>450</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" s="6">
         <v>450</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H8" s="6">
         <v>540</v>
       </c>
       <c r="I8" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2994,8 +2995,8 @@
   </sheetPr>
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3023,481 +3024,481 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
+      <c r="A1" s="26"/>
       <c r="B1" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="I1" s="27"/>
+        <v>59</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>28</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N2" s="22" t="s">
         <v>29</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P2" s="22" t="s">
         <v>32</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R2" s="22" t="s">
         <v>33</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R3" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F4" s="23">
         <v>30</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H4" s="23">
         <v>90</v>
       </c>
       <c r="I4" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="S4" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5" s="23">
         <v>90</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H5" s="23">
         <v>150</v>
       </c>
       <c r="I5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="S5" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R5" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F6" s="23">
         <v>150</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H6" s="23">
         <v>240</v>
       </c>
       <c r="I6" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="S6" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R6" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F7" s="23">
         <v>240</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H7" s="23">
         <v>330</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="S7" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P7" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R7" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" s="23">
         <v>330</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H8" s="23">
         <v>420</v>
       </c>
       <c r="I8" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="S8" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P8" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R8" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F9" s="23">
         <v>420</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H9" s="23">
         <v>510</v>
       </c>
       <c r="I9" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="S9" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P9" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R9" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="S9" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3517,8 +3518,8 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S8" sqref="A1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3547,468 +3548,468 @@
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H3" s="6">
         <v>90</v>
       </c>
       <c r="I3" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F4" s="6">
         <v>90</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H4" s="6">
         <v>180</v>
       </c>
       <c r="I4" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="S4" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5" s="6">
         <v>180</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H5" s="6">
         <v>360</v>
       </c>
       <c r="I5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F6" s="6">
         <v>360</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H6" s="6">
         <v>540</v>
       </c>
       <c r="I6" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q6" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S6" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F7" s="6">
         <v>540</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H7" s="6">
         <v>720</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" s="6">
         <v>720</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H8" s="6">
         <v>900</v>
       </c>
       <c r="I8" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S8" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4028,8 +4029,8 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4058,470 +4059,470 @@
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H3" s="6">
         <v>90</v>
       </c>
       <c r="I3" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F4" s="6">
         <v>90</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H4" s="6">
         <v>180</v>
       </c>
       <c r="I4" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="S4" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5" s="6">
         <v>180</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H5" s="6">
         <v>360</v>
       </c>
       <c r="I5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F6" s="6">
         <v>360</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H6" s="6">
         <v>540</v>
       </c>
       <c r="I6" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S6" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F7" s="6">
         <v>540</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H7" s="6">
         <v>720</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" s="6">
         <v>720</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H8" s="6">
         <v>900</v>
       </c>
       <c r="I8" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S8" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4541,8 +4542,8 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection sqref="A1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4571,466 +4572,466 @@
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H3" s="6">
         <v>90</v>
       </c>
       <c r="I3" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F4" s="6">
         <v>90</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H4" s="6">
         <v>180</v>
       </c>
       <c r="I4" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="S4" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5" s="6">
         <v>180</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H5" s="6">
         <v>360</v>
       </c>
       <c r="I5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="S5" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F6" s="6">
         <v>360</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H6" s="6">
         <v>540</v>
       </c>
       <c r="I6" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S6" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F7" s="6">
         <v>540</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H7" s="6">
         <v>720</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q7" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="S7" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q7" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" s="6">
         <v>720</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H8" s="6">
         <v>900</v>
       </c>
       <c r="I8" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S8" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5050,8 +5051,8 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5080,468 +5081,468 @@
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H3" s="6">
         <v>90</v>
       </c>
       <c r="I3" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F4" s="6">
         <v>90</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H4" s="6">
         <v>180</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="O4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="S4" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5" s="6">
         <v>180</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H5" s="6">
         <v>360</v>
       </c>
       <c r="I5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q5" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F6" s="6">
         <v>360</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H6" s="6">
         <v>540</v>
       </c>
       <c r="I6" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S6" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F7" s="6">
         <v>540</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H7" s="6">
         <v>720</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" s="6">
         <v>720</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H8" s="6">
         <v>900</v>
       </c>
       <c r="I8" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S8" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5561,8 +5562,8 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5591,467 +5592,467 @@
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H3" s="6">
         <v>60</v>
       </c>
       <c r="I3" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F4" s="6">
         <v>60</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H4" s="6">
         <v>180</v>
       </c>
       <c r="I4" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="S4" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5" s="6">
         <v>180</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H5" s="6">
         <v>210</v>
       </c>
       <c r="I5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="S5" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F6" s="6">
         <v>210</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H6" s="6">
         <v>246</v>
       </c>
       <c r="I6" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="S6" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F7" s="6">
         <v>246</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H7" s="6">
         <v>270</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="S7" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="E8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" s="6">
         <v>270</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H8" s="6">
         <v>390</v>
       </c>
       <c r="I8" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="S8" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -6071,8 +6072,8 @@
   </sheetPr>
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6101,409 +6102,409 @@
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H3" s="6">
         <v>90</v>
       </c>
       <c r="I3" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F4" s="6">
         <v>90</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H4" s="6">
         <v>210</v>
       </c>
       <c r="I4" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="S4" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5" s="6">
         <v>210</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H5" s="6">
         <v>270</v>
       </c>
       <c r="I5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="S5" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F6" s="6">
         <v>270</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H6" s="6">
         <v>390</v>
       </c>
       <c r="I6" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="S6" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F7" s="6">
         <v>390</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H7" s="6">
         <v>570</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="S7" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -6523,8 +6524,8 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6553,470 +6554,470 @@
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H3" s="6">
         <v>90</v>
       </c>
       <c r="I3" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F4" s="6">
         <v>90</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H4" s="6">
         <v>180</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5" s="6">
         <v>180</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H5" s="6">
         <v>360</v>
       </c>
       <c r="I5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q5" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F6" s="6">
         <v>360</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H6" s="6">
         <v>540</v>
       </c>
       <c r="I6" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F7" s="6">
         <v>540</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H7" s="6">
         <v>720</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="S7" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" s="6">
         <v>720</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H8" s="6">
         <v>810</v>
       </c>
       <c r="I8" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/human/adult/validation/Scenarios/AnesthesiaMachineValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/AnesthesiaMachineValidation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\documentation-source\data\human\adult\validation\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957E373E-0F2A-4106-9A3B-1D5EF2BAEA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E346E79-DFA2-43F1-801F-7803007B1C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27150" yWindow="6735" windowWidth="29340" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
@@ -1082,7 +1082,7 @@
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1106,9 +1106,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1587,568 +1584,568 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="131.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="40.140625" style="27"/>
+    <col min="1" max="1" width="2" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="131.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="40.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="29" t="s">
+      <c r="I1" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" s="28" t="s">
+      <c r="A2" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="35">
         <v>30</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="36">
         <v>0</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="37">
         <v>0</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="35">
         <v>29</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="36">
         <v>1</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="37">
         <v>0</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="35">
         <v>30</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="36">
         <v>0</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="37">
         <v>0</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="35" t="s">
+      <c r="C6" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <v>29</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="36">
         <v>1</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="37">
         <v>0</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="35" t="s">
+      <c r="C7" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <v>30</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="36">
         <v>0</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="37">
         <v>0</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="35">
         <v>30</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="36">
         <v>0</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="37">
         <v>0</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="35" t="s">
+      <c r="C9" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="35">
         <v>30</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <v>0</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="37">
         <v>0</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="35" t="s">
+      <c r="C10" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="35">
         <v>25</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="36">
         <v>0</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="37">
         <v>0</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="35" t="s">
+      <c r="C11" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="35">
         <v>30</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="36">
         <v>0</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="37">
         <v>0</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="35" t="s">
+      <c r="C12" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="35">
         <v>12</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="36">
         <v>0</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="37">
         <v>0</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="35" t="s">
+      <c r="A13" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="35" t="s">
+      <c r="C13" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="35">
         <v>30</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="36">
         <v>0</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="37">
         <v>0</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="35" t="s">
+      <c r="A14" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="35" t="s">
+      <c r="C14" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="35">
         <v>30</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="36">
         <v>0</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="37">
         <v>0</v>
       </c>
-      <c r="K14" s="28" t="s">
+      <c r="K14" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="31" t="s">
+      <c r="A15" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="35">
         <f>SUM(F3:F14)</f>
         <v>335</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="36">
         <f>SUM(H3:H14)</f>
         <v>2</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="37">
         <f>SUM(J3:J14)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="K15" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="32"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="31"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="33"/>
+      <c r="C22" s="32"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="14"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D31" s="33"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="14"/>
+      <c r="D32" s="13"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2173,299 +2170,299 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="24" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="I1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="O1" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="O2" s="19" t="s">
+      <c r="O1" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H3" s="6">
         <v>120</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F4" s="6">
         <v>120</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H4" s="6">
         <v>300</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F5" s="6">
         <v>300</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H5" s="6">
         <v>480</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F6" s="6">
         <v>480</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H6" s="6">
         <v>660</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="18" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2492,489 +2489,489 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="24" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="S2" s="19" t="s">
+      <c r="S1" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H3" s="6">
         <v>90</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F4" s="6">
         <v>90</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H4" s="6">
         <v>180</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F5" s="6">
         <v>180</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H5" s="6">
         <v>270</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F6" s="6">
         <v>270</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H6" s="6">
         <v>360</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F7" s="6">
         <v>360</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H7" s="6">
         <v>450</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="Q7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="S7" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F8" s="6">
         <v>450</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H8" s="6">
         <v>540</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="18" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3001,503 +2998,503 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="2" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="2" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="25" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="24" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="26"/>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="21" t="s">
+      <c r="K2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="22" t="s">
+      <c r="M2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" s="22" t="s">
+      <c r="O2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="R2" s="22" t="s">
+      <c r="Q2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="S3" s="19" t="s">
+      <c r="A3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="S3" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="23">
+      <c r="E4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="22">
         <v>30</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="23">
+      <c r="G4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="22">
         <v>90</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="L4" s="24" t="s">
+      <c r="K4" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="M4" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="N4" s="24" t="s">
+      <c r="M4" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="P4" s="24" t="s">
+      <c r="O4" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="Q4" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="R4" s="24" t="s">
+      <c r="Q4" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="R4" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="23">
+      <c r="E5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="22">
         <v>90</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="23">
+      <c r="G5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="22">
         <v>150</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="K5" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="L5" s="24" t="s">
+      <c r="K5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="M5" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="N5" s="24" t="s">
+      <c r="M5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="O5" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="P5" s="24" t="s">
+      <c r="O5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="Q5" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="R5" s="24" t="s">
+      <c r="Q5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="23">
+      <c r="E6" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="22">
         <v>150</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="23">
+      <c r="G6" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="22">
         <v>240</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="L6" s="24" t="s">
+      <c r="K6" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="M6" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="N6" s="24" t="s">
+      <c r="M6" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="O6" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="P6" s="24" t="s">
+      <c r="O6" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="Q6" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="R6" s="24" t="s">
+      <c r="Q6" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="23">
+      <c r="C7" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="22">
         <v>240</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="23">
+      <c r="G7" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="22">
         <v>330</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="L7" s="24" t="s">
+      <c r="K7" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="M7" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="N7" s="24" t="s">
+      <c r="M7" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="O7" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="P7" s="24" t="s">
+      <c r="O7" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="Q7" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="R7" s="24" t="s">
+      <c r="Q7" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="S7" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="23">
+      <c r="E8" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="22">
         <v>330</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="23">
+      <c r="G8" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="22">
         <v>420</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" s="24" t="s">
+      <c r="K8" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="M8" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="N8" s="24" t="s">
+      <c r="M8" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="P8" s="24" t="s">
+      <c r="O8" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="Q8" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="R8" s="24" t="s">
+      <c r="Q8" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="23" t="s">
+    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="23">
+      <c r="C9" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="22">
         <v>420</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="23">
+      <c r="G9" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="22">
         <v>510</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="K9" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="L9" s="24" t="s">
+      <c r="K9" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="M9" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="N9" s="24" t="s">
+      <c r="M9" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="N9" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="O9" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="P9" s="24" t="s">
+      <c r="O9" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="Q9" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="R9" s="24" t="s">
+      <c r="Q9" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="R9" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="S9" s="19" t="s">
+      <c r="S9" s="18" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3524,491 +3521,491 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="24" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="S2" s="19" t="s">
+      <c r="S1" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H3" s="6">
         <v>90</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F4" s="6">
         <v>90</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H4" s="6">
         <v>180</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F5" s="6">
         <v>180</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H5" s="6">
         <v>360</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="Q5" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="R5" s="24" t="s">
+      <c r="Q5" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F6" s="6">
         <v>360</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H6" s="6">
         <v>540</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="Q6" s="28" t="s">
+      <c r="Q6" s="27" t="s">
         <v>116</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F7" s="6">
         <v>540</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H7" s="6">
         <v>720</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="27" t="s">
         <v>122</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="Q7" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="R7" s="24" t="s">
+      <c r="Q7" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="S7" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F8" s="6">
         <v>720</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H8" s="6">
         <v>900</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="18" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4035,493 +4032,493 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="24" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="S2" s="19" t="s">
+      <c r="S1" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H3" s="6">
         <v>90</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F4" s="6">
         <v>90</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H4" s="6">
         <v>180</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F5" s="6">
         <v>180</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H5" s="6">
         <v>360</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F6" s="6">
         <v>360</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H6" s="6">
         <v>540</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F7" s="6">
         <v>540</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H7" s="6">
         <v>720</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="Q7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="S7" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F8" s="6">
         <v>720</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H8" s="6">
         <v>900</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="18" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4548,489 +4545,489 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="24" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="S2" s="19" t="s">
+      <c r="S1" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H3" s="6">
         <v>90</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F4" s="6">
         <v>90</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H4" s="6">
         <v>180</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F5" s="6">
         <v>180</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H5" s="6">
         <v>360</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="Q5" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="R5" s="24" t="s">
+      <c r="Q5" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F6" s="6">
         <v>360</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H6" s="6">
         <v>540</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F7" s="6">
         <v>540</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H7" s="6">
         <v>720</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="27" t="s">
         <v>122</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="Q7" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="R7" s="24" t="s">
+      <c r="Q7" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="S7" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F8" s="6">
         <v>720</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H8" s="6">
         <v>900</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="18" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5051,497 +5048,497 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:T8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="24" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="S2" s="19" t="s">
+      <c r="S1" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H3" s="6">
         <v>90</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F4" s="6">
         <v>90</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H4" s="6">
         <v>180</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F5" s="6">
         <v>180</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H5" s="6">
         <v>360</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="N5" s="24" t="s">
+      <c r="M5" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="O5" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="P5" s="24" t="s">
+      <c r="O5" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="R5" s="9" t="s">
+      <c r="Q5" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F6" s="6">
         <v>360</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H6" s="6">
         <v>540</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F7" s="6">
         <v>540</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H7" s="6">
         <v>720</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="Q7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="S7" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F8" s="6">
         <v>720</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H8" s="6">
         <v>900</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="18" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5568,490 +5565,490 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="24" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="S2" s="19" t="s">
+      <c r="S1" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H3" s="6">
         <v>60</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F4" s="6">
         <v>60</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H4" s="6">
         <v>180</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F5" s="6">
         <v>180</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H5" s="6">
         <v>210</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R5" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F6" s="6">
         <v>210</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H6" s="6">
         <v>246</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F7" s="6">
         <v>246</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H7" s="6">
         <v>270</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="Q7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="S7" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F8" s="6">
         <v>270</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H8" s="6">
         <v>390</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="18" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6078,432 +6075,432 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="24" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="S2" s="19" t="s">
+      <c r="S1" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H3" s="6">
         <v>90</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F4" s="6">
         <v>90</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H4" s="6">
         <v>210</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F5" s="6">
         <v>210</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H5" s="6">
         <v>270</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R5" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F6" s="6">
         <v>270</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H6" s="6">
         <v>390</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F7" s="6">
         <v>390</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H7" s="6">
         <v>570</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="Q7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="S7" s="18" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6530,493 +6527,493 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="24" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="S2" s="19" t="s">
+      <c r="S1" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H3" s="6">
         <v>90</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F4" s="6">
         <v>90</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H4" s="6">
         <v>180</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F5" s="6">
         <v>180</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H5" s="6">
         <v>360</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="Q5" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="R5" s="24" t="s">
+      <c r="Q5" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F6" s="6">
         <v>360</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H6" s="6">
         <v>540</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F7" s="6">
         <v>540</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H7" s="6">
         <v>720</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="Q7" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="R7" s="24" t="s">
+      <c r="Q7" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="S7" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="19" t="s">
+      <c r="C8" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F8" s="6">
         <v>720</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H8" s="6">
         <v>810</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="18" t="s">
         <v>117</v>
       </c>
     </row>
